--- a/Resources/1992/Basic_Percentile_1992.xlsx
+++ b/Resources/1992/Basic_Percentile_1992.xlsx
@@ -1213,40 +1213,40 @@
     <t>crowdco01</t>
   </si>
   <si>
-    <t>David Robinson*</t>
-  </si>
-  <si>
-    <t>Scottie Pippen*</t>
-  </si>
-  <si>
-    <t>Michael Jordan*</t>
-  </si>
-  <si>
-    <t>Clyde Drexler*</t>
+    <t>David Robinson</t>
+  </si>
+  <si>
+    <t>Scottie Pippen</t>
+  </si>
+  <si>
+    <t>Michael Jordan</t>
+  </si>
+  <si>
+    <t>Clyde Drexler</t>
   </si>
   <si>
     <t>Lionel Simmons</t>
   </si>
   <si>
-    <t>Hakeem Olajuwon*</t>
-  </si>
-  <si>
-    <t>Charles Barkley*</t>
+    <t>Hakeem Olajuwon</t>
+  </si>
+  <si>
+    <t>Charles Barkley</t>
   </si>
   <si>
     <t>Danny Manning</t>
   </si>
   <si>
-    <t>Chris Mullin*</t>
+    <t>Chris Mullin</t>
   </si>
   <si>
     <t>Ron Harper</t>
   </si>
   <si>
-    <t>Patrick Ewing*</t>
-  </si>
-  <si>
-    <t>Karl Malone*</t>
+    <t>Patrick Ewing</t>
+  </si>
+  <si>
+    <t>Karl Malone</t>
   </si>
   <si>
     <t>Brad Daugherty</t>
@@ -1261,10 +1261,10 @@
     <t>Kendall Gill</t>
   </si>
   <si>
-    <t>Dominique Wilkins*</t>
-  </si>
-  <si>
-    <t>Larry Bird*</t>
+    <t>Dominique Wilkins</t>
+  </si>
+  <si>
+    <t>Larry Bird</t>
   </si>
   <si>
     <t>Derrick Coleman</t>
@@ -1294,7 +1294,7 @@
     <t>Mookie Blaylock</t>
   </si>
   <si>
-    <t>James Worthy*</t>
+    <t>James Worthy</t>
   </si>
   <si>
     <t>Chris Morris</t>
@@ -1312,7 +1312,7 @@
     <t>Kevin Johnson</t>
   </si>
   <si>
-    <t>Mitch Richmond*</t>
+    <t>Mitch Richmond</t>
   </si>
   <si>
     <t>Shawn Kemp</t>
@@ -1333,7 +1333,7 @@
     <t>Willie Anderson</t>
   </si>
   <si>
-    <t>John Stockton*</t>
+    <t>John Stockton</t>
   </si>
   <si>
     <t>Tim Hardaway</t>
@@ -1369,13 +1369,13 @@
     <t>Sam Bowie</t>
   </si>
   <si>
-    <t>Reggie Miller*</t>
+    <t>Reggie Miller</t>
   </si>
   <si>
     <t>Fat Lever</t>
   </si>
   <si>
-    <t>Dikembe Mutombo*</t>
+    <t>Dikembe Mutombo</t>
   </si>
   <si>
     <t>Glen Rice</t>
@@ -1396,7 +1396,7 @@
     <t>Derek Harper</t>
   </si>
   <si>
-    <t>Dennis Rodman*</t>
+    <t>Dennis Rodman</t>
   </si>
   <si>
     <t>Sean Elliott</t>
@@ -1408,7 +1408,7 @@
     <t>Charles Smith</t>
   </si>
   <si>
-    <t>Isiah Thomas*</t>
+    <t>Isiah Thomas</t>
   </si>
   <si>
     <t>Tony Campbell</t>
@@ -1417,7 +1417,7 @@
     <t>Sedale Threatt</t>
   </si>
   <si>
-    <t>Moses Malone*</t>
+    <t>Moses Malone</t>
   </si>
   <si>
     <t>Spud Webb</t>
@@ -1435,7 +1435,7 @@
     <t>Terry Cummings</t>
   </si>
   <si>
-    <t>Gary Payton*</t>
+    <t>Gary Payton</t>
   </si>
   <si>
     <t>Craig Ehlo</t>
@@ -1504,7 +1504,7 @@
     <t>Kevin Gamble</t>
   </si>
   <si>
-    <t>Robert Parish*</t>
+    <t>Robert Parish</t>
   </si>
   <si>
     <t>J.R. Reid</t>
@@ -1528,7 +1528,7 @@
     <t>Doc Rivers</t>
   </si>
   <si>
-    <t>Drazen Petrovic*</t>
+    <t>Drazen Petrovic</t>
   </si>
   <si>
     <t>Rik Smits</t>
@@ -1549,7 +1549,7 @@
     <t>Buck Johnson</t>
   </si>
   <si>
-    <t>Sarunas Marciulionis*</t>
+    <t>Sarunas Marciulionis</t>
   </si>
   <si>
     <t>Alexander Volkov</t>
@@ -1639,7 +1639,7 @@
     <t>Cedric Hunter</t>
   </si>
   <si>
-    <t>Kevin McHale*</t>
+    <t>Kevin McHale</t>
   </si>
   <si>
     <t>Dan Godfread</t>
@@ -1660,7 +1660,7 @@
     <t>Johnny Dawkins</t>
   </si>
   <si>
-    <t>Joe Dumars*</t>
+    <t>Joe Dumars</t>
   </si>
   <si>
     <t>Mark Eaton</t>
@@ -1867,7 +1867,7 @@
     <t>Ledell Eackles</t>
   </si>
   <si>
-    <t>Maurice Cheeks*</t>
+    <t>Maurice Cheeks</t>
   </si>
   <si>
     <t>Jayson Williams</t>
@@ -2107,7 +2107,7 @@
     <t>Tony Massenburg</t>
   </si>
   <si>
-    <t>Ralph Sampson*</t>
+    <t>Ralph Sampson</t>
   </si>
   <si>
     <t>Negele Knight</t>
